--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C1360B-BDE6-403F-9E37-BC8B33C8E78F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC77DE5-3871-45DE-8FA8-DFBC7108B0F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="580" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="580" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>Siapa</t>
   </si>
@@ -915,7 +915,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1027,7 +1027,9 @@
       <c r="D5" s="31">
         <v>45413</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="K5" s="27" t="s">
@@ -1065,7 +1067,9 @@
       <c r="D7" s="31">
         <v>45412</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
@@ -1103,7 +1107,9 @@
       <c r="D9" s="31">
         <v>45412</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
         <v>52</v>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC77DE5-3871-45DE-8FA8-DFBC7108B0F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1135E6-E726-48DD-8BE8-6B0E3B9D31E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="580" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>Siapa</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>REDO. GAVE WRONG FILE</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,7 +1055,9 @@
       <c r="F6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1147,7 +1152,9 @@
       <c r="F11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1135E6-E726-48DD-8BE8-6B0E3B9D31E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FFFEBB-50AB-437A-9820-62E2E227D1DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,22 @@
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
     <sheet name="Videos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
   <si>
     <t>Siapa</t>
   </si>
@@ -121,9 +126,6 @@
     <t>E3</t>
   </si>
   <si>
-    <t>APRIL</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -196,7 +198,13 @@
     <t>Y</t>
   </si>
   <si>
-    <t>REDO. GAVE WRONG FILE</t>
+    <t>3:00-5:00</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>Anggie given the wrong files so she also did these</t>
   </si>
 </sst>
 </file>
@@ -508,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -544,6 +552,8 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,6 +918,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -915,21 +939,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -937,8 +962,17 @@
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -952,7 +986,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>18</v>
@@ -960,14 +994,35 @@
       <c r="G2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="I2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -981,18 +1036,29 @@
         <v>45410</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
-      <c r="K3" s="27" t="s">
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="R3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="S3" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1006,18 +1072,29 @@
         <v>45404</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
-      <c r="K4" s="27" t="s">
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="R4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="S4" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1031,40 +1108,68 @@
         <v>45413</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="K5" s="27" t="s">
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="R5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="S5" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="35">
+        <v>45421</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>25</v>
@@ -1073,17 +1178,28 @@
         <v>45412</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>25</v>
@@ -1092,19 +1208,30 @@
         <v>45412</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>23</v>
@@ -1113,19 +1240,30 @@
         <v>45412</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>20</v>
@@ -1134,34 +1272,62 @@
         <v>45412</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="15"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="36">
+        <v>45421</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="F11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>21</v>
@@ -1170,32 +1336,64 @@
         <v>45405</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="35">
+        <v>45420</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="I13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>21</v>
@@ -1204,100 +1402,215 @@
         <v>45405</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="35">
+        <v>45420</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="I15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="C16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="35">
+        <v>45420</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="G16" s="7"/>
+      <c r="I16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="35">
+        <v>45421</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="I17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="35">
+        <v>45421</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="I18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="18"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="20"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FFFEBB-50AB-437A-9820-62E2E227D1DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BD08ED-3DDB-4269-BF85-4D12A03F4200}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="64">
   <si>
     <t>Siapa</t>
   </si>
@@ -205,6 +205,24 @@
   </si>
   <si>
     <t>Anggie given the wrong files so she also did these</t>
+  </si>
+  <si>
+    <t>1:30-4:00</t>
+  </si>
+  <si>
+    <t>In field, downloaded from google</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
   </si>
 </sst>
 </file>
@@ -834,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,6 +950,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -939,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,7 +984,7 @@
     <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
@@ -971,8 +1003,17 @@
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1021,8 +1062,11 @@
       <c r="S2" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1049,16 +1093,23 @@
       <c r="K3" s="23"/>
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="R3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="S3" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1085,16 +1136,23 @@
       <c r="K4" s="24"/>
       <c r="L4" s="31"/>
       <c r="M4" s="34"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
+      <c r="N4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="R4" s="27" t="s">
         <v>23</v>
       </c>
       <c r="S4" s="27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1121,16 +1179,23 @@
       <c r="K5" s="24"/>
       <c r="L5" s="31"/>
       <c r="M5" s="34"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
+      <c r="N5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="R5" s="27" t="s">
         <v>25</v>
       </c>
       <c r="S5" s="27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1161,10 +1226,14 @@
       <c r="K6" s="24"/>
       <c r="L6" s="18"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1191,10 +1260,14 @@
       <c r="K7" s="24"/>
       <c r="L7" s="31"/>
       <c r="M7" s="34"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1223,10 +1296,14 @@
       <c r="K8" s="24"/>
       <c r="L8" s="31"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1255,10 +1332,12 @@
       <c r="K9" s="24"/>
       <c r="L9" s="31"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1285,10 +1364,12 @@
       <c r="K10" s="24"/>
       <c r="L10" s="31"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1319,10 +1400,14 @@
       <c r="K11" s="25"/>
       <c r="L11" s="19"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1354,7 +1439,7 @@
       </c>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1388,7 +1473,7 @@
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1420,7 +1505,7 @@
       </c>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1446,15 +1531,21 @@
       <c r="J15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="6"/>
+      <c r="K15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1604,9 +1695,15 @@
       <c r="J20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="9"/>
+      <c r="K20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="N20" s="9" t="s">
         <v>49</v>
       </c>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BD08ED-3DDB-4269-BF85-4D12A03F4200}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA8148-7BC8-4D7E-9F10-F57C8EDCF201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="66">
   <si>
     <t>Siapa</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>NEED TO TALK</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -572,6 +578,7 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,14 +980,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -995,7 +1003,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
       <c r="I1" s="28" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
@@ -1257,9 +1265,15 @@
       <c r="J7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="34"/>
+      <c r="K7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="31">
+        <v>45449</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="N7" s="6" t="s">
         <v>22</v>
       </c>
@@ -1329,9 +1343,15 @@
       <c r="J9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="34"/>
+      <c r="K9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="31">
+        <v>45443</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="N9" s="34" t="s">
         <v>49</v>
       </c>
@@ -1361,9 +1381,15 @@
       <c r="J10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="34"/>
+      <c r="K10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="31">
+        <v>45441</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="N10" s="34" t="s">
         <v>49</v>
       </c>
@@ -1431,13 +1457,21 @@
       <c r="J12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="34"/>
+      <c r="K12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="31">
+        <v>45443</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="N12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1465,13 +1499,21 @@
       <c r="J13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="6"/>
+      <c r="K13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="35">
+        <v>45443</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1497,13 +1539,21 @@
       <c r="J14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="34"/>
+      <c r="K14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="31">
+        <v>45443</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="N14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -1534,8 +1584,8 @@
       <c r="K15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>63</v>
+      <c r="L15" s="35">
+        <v>45432</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>54</v>
@@ -1571,9 +1621,15 @@
       <c r="J16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="6"/>
+      <c r="K16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="35">
+        <v>45441</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N16" s="6" t="s">
         <v>47</v>
       </c>
@@ -1605,9 +1661,15 @@
       <c r="J17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="6"/>
+      <c r="K17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="35">
+        <v>45433</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N17" s="6" t="s">
         <v>47</v>
       </c>
@@ -1639,9 +1701,15 @@
       <c r="J18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="6"/>
+      <c r="K18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="35">
+        <v>45432</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N18" s="6" t="s">
         <v>47</v>
       </c>
@@ -1654,9 +1722,15 @@
       <c r="B19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="6"/>
+      <c r="C19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="35">
+        <v>45443</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>50</v>
       </c>
@@ -1667,13 +1741,21 @@
       <c r="J19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="6"/>
+      <c r="K19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="35">
+        <v>45433</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="7"/>
+      <c r="O19" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
@@ -1682,9 +1764,15 @@
       <c r="B20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="37">
+        <v>45443</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="F20" s="9" t="s">
         <v>50</v>
       </c>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA8148-7BC8-4D7E-9F10-F57C8EDCF201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E8F70E-695F-45F8-9CD0-3B7C3152EC3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
   <si>
     <t>Siapa</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>NEED TO TALK</t>
+  </si>
+  <si>
+    <t>Sophie</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,11 +1148,9 @@
       <c r="L4" s="31"/>
       <c r="M4" s="34"/>
       <c r="N4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="O4" s="7"/>
       <c r="R4" s="27" t="s">
         <v>23</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>24</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E8F70E-695F-45F8-9CD0-3B7C3152EC3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6325B-B0A8-47AB-B2A9-3778F0C88505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="70">
   <si>
     <t>Siapa</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Sophie</t>
+  </si>
+  <si>
+    <t>Date analyzed incorrect</t>
+  </si>
+  <si>
+    <t>SOPHIE</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -582,6 +591,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1101,9 +1111,15 @@
       <c r="J3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="33"/>
+      <c r="K3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="32">
+        <v>45453</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="N3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1144,9 +1160,15 @@
       <c r="J4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="34"/>
+      <c r="K4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="N4" s="6" t="s">
         <v>66</v>
       </c>
@@ -1185,9 +1207,15 @@
       <c r="J5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="34"/>
+      <c r="K5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="31">
+        <v>45453</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>24</v>
       </c>
@@ -1232,9 +1260,15 @@
       <c r="J6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="6"/>
+      <c r="K6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="35">
+        <v>45453</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1308,14 +1342,20 @@
       <c r="J8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="34"/>
+      <c r="K8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="31">
+        <v>45443</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="N8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
@@ -1424,14 +1464,20 @@
       <c r="J11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="15"/>
+      <c r="K11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="38">
+        <v>45443</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="N11" s="15" t="s">
         <v>26</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6325B-B0A8-47AB-B2A9-3778F0C88505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A92B8-401C-4D25-8F69-3C74753E358C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="75">
   <si>
     <t>Siapa</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Flashdrive</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Sipsie</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>BELUM</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,7 +1020,7 @@
     <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
@@ -1024,17 +1039,29 @@
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
       <c r="O1" s="30"/>
-      <c r="R1" t="s">
+      <c r="Q1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="30"/>
+      <c r="Y1" t="s">
         <v>60</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>61</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1077,17 +1104,41 @@
       <c r="O2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="Z2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T2">
+      <c r="AA2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1126,17 +1177,31 @@
       <c r="O3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="23"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="4"/>
+      <c r="Y3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="Z3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="T3">
+      <c r="AA3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1173,17 +1238,33 @@
         <v>66</v>
       </c>
       <c r="O4" s="7"/>
-      <c r="R4" s="27" t="s">
+      <c r="Q4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="Y4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="Z4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="T4">
+      <c r="AA4" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1222,17 +1303,31 @@
       <c r="O5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="24"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="7"/>
+      <c r="Y5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="27" t="s">
+      <c r="Z5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="T5">
+      <c r="AA5" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1275,8 +1370,21 @@
       <c r="O6" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1315,8 +1423,19 @@
       <c r="O7" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1357,8 +1476,19 @@
       <c r="O8" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1397,8 +1527,19 @@
         <v>49</v>
       </c>
       <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1435,8 +1576,19 @@
         <v>49</v>
       </c>
       <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1479,8 +1631,21 @@
       <c r="O11" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="25"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="16"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1519,8 +1684,21 @@
       <c r="O12" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="24"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1561,8 +1739,19 @@
       <c r="O13" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="24"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1601,8 +1790,21 @@
       <c r="O14" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" s="24"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1641,8 +1843,23 @@
         <v>49</v>
       </c>
       <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="24"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1681,8 +1898,19 @@
         <v>47</v>
       </c>
       <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -1721,8 +1949,21 @@
         <v>47</v>
       </c>
       <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="24"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="7"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1761,8 +2002,21 @@
         <v>47</v>
       </c>
       <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="24"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1803,8 +2057,19 @@
       <c r="O19" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="24"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -1843,6 +2108,19 @@
         <v>49</v>
       </c>
       <c r="O20" s="10"/>
+      <c r="Q20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="26"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A92B8-401C-4D25-8F69-3C74753E358C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1CCB85-652D-4873-9C2B-F4236D11D2A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="78">
   <si>
     <t>Siapa</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>BELUM</t>
+  </si>
+  <si>
+    <t>OWES</t>
+  </si>
+  <si>
+    <t>GIVEN</t>
+  </si>
+  <si>
+    <t>Belum</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1029,7 @@
     <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
@@ -1060,8 +1069,14 @@
       <c r="AB1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AC1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1137,8 +1152,14 @@
       <c r="AB2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC2">
+        <v>200</v>
+      </c>
+      <c r="AD2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1200,8 +1221,14 @@
       <c r="AB3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC3">
+        <v>200</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1277,9 @@
       <c r="V4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="7"/>
+      <c r="W4" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="Y4" s="27" t="s">
         <v>23</v>
       </c>
@@ -1263,8 +1292,14 @@
       <c r="AB4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC4">
+        <v>200</v>
+      </c>
+      <c r="AD4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1326,8 +1361,14 @@
       <c r="AB5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC5">
+        <v>200</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1382,9 +1423,11 @@
       <c r="V6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="W6" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1478,7 @@
       <c r="V7" s="6"/>
       <c r="W7" s="7"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1488,7 +1531,7 @@
       <c r="V8" s="6"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1539,7 +1582,7 @@
       <c r="V9" s="34"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1631,7 @@
       <c r="V10" s="34"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1688,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1698,7 +1741,7 @@
       </c>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1794,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="7"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +1847,7 @@
       </c>
       <c r="W14" s="7"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1859,7 +1902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1CCB85-652D-4873-9C2B-F4236D11D2A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6511732-6ACE-4F2E-9BA2-83640A46E1F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="79">
   <si>
     <t>Siapa</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Belum</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1021,7 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1049,7 +1052,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="30"/>
       <c r="Q1" s="28" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
@@ -1153,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="AC2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD2">
         <v>100</v>
@@ -1222,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="AC3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD3">
         <v>100</v>
@@ -1293,7 +1296,7 @@
         <v>8</v>
       </c>
       <c r="AC4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD4">
         <v>100</v>
@@ -1362,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="AC5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1791,7 +1794,9 @@
       <c r="S13" s="24"/>
       <c r="T13" s="35"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="V13" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
@@ -1950,7 +1955,9 @@
       <c r="S16" s="24"/>
       <c r="T16" s="35"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="V16" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -2109,7 +2116,9 @@
       <c r="S19" s="24"/>
       <c r="T19" s="35"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="V19" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6511732-6ACE-4F2E-9BA2-83640A46E1F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76643C7E-C341-4C02-B9BC-0A6F97AE5A89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="79">
   <si>
     <t>Siapa</t>
   </si>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1350,7 +1350,9 @@
       <c r="S5" s="24"/>
       <c r="T5" s="31"/>
       <c r="U5" s="34"/>
-      <c r="V5" s="6"/>
+      <c r="V5" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="W5" s="7"/>
       <c r="Y5" s="27" t="s">
         <v>25</v>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76643C7E-C341-4C02-B9BC-0A6F97AE5A89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF584AF-2DDE-4130-BD12-BAF48E78935B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="79">
   <si>
     <t>Siapa</t>
   </si>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1210,7 +1210,9 @@
       <c r="S3" s="23"/>
       <c r="T3" s="32"/>
       <c r="U3" s="33"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="W3" s="4"/>
       <c r="Y3" s="27" t="s">
         <v>21</v>
@@ -1533,7 +1535,9 @@
       <c r="S8" s="24"/>
       <c r="T8" s="31"/>
       <c r="U8" s="34"/>
-      <c r="V8" s="6"/>
+      <c r="V8" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF584AF-2DDE-4130-BD12-BAF48E78935B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6F82D3-1035-4B0A-9FCE-885638C2445F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="80">
   <si>
     <t>Siapa</t>
   </si>
@@ -255,19 +255,22 @@
     <t>Gray</t>
   </si>
   <si>
-    <t>BELUM</t>
-  </si>
-  <si>
     <t>OWES</t>
   </si>
   <si>
     <t>GIVEN</t>
   </si>
   <si>
-    <t>Belum</t>
-  </si>
-  <si>
     <t>June</t>
+  </si>
+  <si>
+    <t>Sophie/ Fajrin</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>AN/SU</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -619,6 +622,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1030,6 +1034,7 @@
     <col min="7" max="7" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1052,7 +1057,7 @@
       <c r="N1" s="29"/>
       <c r="O1" s="30"/>
       <c r="Q1" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
@@ -1073,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="AC1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" t="s">
         <v>75</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1209,7 +1214,9 @@
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="32"/>
-      <c r="U3" s="33"/>
+      <c r="U3" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="V3" s="3" t="s">
         <v>66</v>
       </c>
@@ -1278,13 +1285,13 @@
       </c>
       <c r="S4" s="24"/>
       <c r="T4" s="31"/>
-      <c r="U4" s="34"/>
+      <c r="U4" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="V4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="W4" s="7"/>
       <c r="Y4" s="27" t="s">
         <v>23</v>
       </c>
@@ -1351,7 +1358,9 @@
       </c>
       <c r="S5" s="24"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="34"/>
+      <c r="U5" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="V5" s="6" t="s">
         <v>66</v>
       </c>
@@ -1426,13 +1435,13 @@
       </c>
       <c r="S6" s="24"/>
       <c r="T6" s="35"/>
-      <c r="U6" s="6"/>
+      <c r="U6" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="V6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>77</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1481,8 +1490,12 @@
       </c>
       <c r="S7" s="24"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="6"/>
+      <c r="U7" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="W7" s="7"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
@@ -1534,7 +1547,9 @@
       </c>
       <c r="S8" s="24"/>
       <c r="T8" s="31"/>
-      <c r="U8" s="34"/>
+      <c r="U8" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="V8" s="6" t="s">
         <v>66</v>
       </c>
@@ -1587,8 +1602,12 @@
       </c>
       <c r="S9" s="24"/>
       <c r="T9" s="31"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
+      <c r="U9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
@@ -1636,8 +1655,12 @@
       </c>
       <c r="S10" s="24"/>
       <c r="T10" s="31"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
+      <c r="U10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="W10" s="7"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
@@ -1689,9 +1712,15 @@
       <c r="R11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="15"/>
+      <c r="S11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="39">
+        <v>45603</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="V11" s="15" t="s">
         <v>48</v>
       </c>
@@ -1799,7 +1828,9 @@
       </c>
       <c r="S13" s="24"/>
       <c r="T13" s="35"/>
-      <c r="U13" s="6"/>
+      <c r="U13" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="V13" s="6" t="s">
         <v>66</v>
       </c>
@@ -1905,13 +1936,13 @@
       </c>
       <c r="S15" s="24"/>
       <c r="T15" s="35"/>
-      <c r="U15" s="6"/>
+      <c r="U15" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="V15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="W15" s="7"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -1960,7 +1991,9 @@
       </c>
       <c r="S16" s="24"/>
       <c r="T16" s="35"/>
-      <c r="U16" s="6"/>
+      <c r="U16" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="V16" s="6" t="s">
         <v>66</v>
       </c>
@@ -2013,7 +2046,9 @@
       </c>
       <c r="S17" s="24"/>
       <c r="T17" s="35"/>
-      <c r="U17" s="6"/>
+      <c r="U17" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="V17" s="6" t="s">
         <v>48</v>
       </c>
@@ -2066,7 +2101,9 @@
       </c>
       <c r="S18" s="24"/>
       <c r="T18" s="35"/>
-      <c r="U18" s="6"/>
+      <c r="U18" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="V18" s="6" t="s">
         <v>47</v>
       </c>
@@ -2121,7 +2158,9 @@
       </c>
       <c r="S19" s="24"/>
       <c r="T19" s="35"/>
-      <c r="U19" s="6"/>
+      <c r="U19" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="V19" s="6" t="s">
         <v>66</v>
       </c>
@@ -2172,9 +2211,15 @@
       <c r="R20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="S20" s="26"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="9"/>
+      <c r="S20" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="V20" s="9" t="s">
         <v>48</v>
       </c>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6F82D3-1035-4B0A-9FCE-885638C2445F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26298A8D-78E5-49E5-A376-58DCEDC08C87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="81">
   <si>
     <t>Siapa</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>AN/SU</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,9 +1038,10 @@
     <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
@@ -1065,26 +1069,35 @@
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
       <c r="W1" s="30"/>
-      <c r="Y1" t="s">
+      <c r="Y1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="30"/>
+      <c r="AG1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AH1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AI1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AJ1" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AL1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1148,26 +1161,47 @@
       <c r="W2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="AH2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AI2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AB2">
+      <c r="AJ2">
         <v>10</v>
       </c>
-      <c r="AC2">
+      <c r="AK2">
         <v>300</v>
       </c>
-      <c r="AD2">
+      <c r="AL2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1221,26 +1255,37 @@
         <v>66</v>
       </c>
       <c r="W3" s="4"/>
-      <c r="Y3" s="27" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="4"/>
+      <c r="AG3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="AH3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AI3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AB3">
+      <c r="AJ3">
         <v>9</v>
       </c>
-      <c r="AC3">
+      <c r="AK3">
         <v>300</v>
       </c>
-      <c r="AD3">
+      <c r="AL3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1292,26 +1337,37 @@
         <v>66</v>
       </c>
       <c r="W4" s="7"/>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="7"/>
+      <c r="AG4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="27" t="s">
+      <c r="AH4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" s="27" t="s">
+      <c r="AI4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AB4">
+      <c r="AJ4">
         <v>8</v>
       </c>
-      <c r="AC4">
+      <c r="AK4">
         <v>300</v>
       </c>
-      <c r="AD4">
+      <c r="AL4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1365,26 +1421,37 @@
         <v>66</v>
       </c>
       <c r="W5" s="7"/>
-      <c r="Y5" s="27" t="s">
+      <c r="Y5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="7"/>
+      <c r="AG5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="27" t="s">
+      <c r="AH5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="27" t="s">
+      <c r="AI5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AB5">
+      <c r="AJ5">
         <v>10</v>
       </c>
-      <c r="AC5">
+      <c r="AK5">
         <v>300</v>
       </c>
-      <c r="AD5">
+      <c r="AL5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1442,8 +1509,19 @@
         <v>66</v>
       </c>
       <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="7"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1497,8 +1575,23 @@
         <v>66</v>
       </c>
       <c r="W7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE7" s="7"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1554,8 +1647,23 @@
         <v>66</v>
       </c>
       <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE8" s="7"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1609,8 +1717,19 @@
         <v>77</v>
       </c>
       <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="7"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1662,8 +1781,19 @@
         <v>66</v>
       </c>
       <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="7"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1725,8 +1855,19 @@
         <v>48</v>
       </c>
       <c r="W11" s="16"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="16"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1778,8 +1919,19 @@
         <v>49</v>
       </c>
       <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1835,8 +1987,19 @@
         <v>66</v>
       </c>
       <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1888,8 +2051,19 @@
         <v>49</v>
       </c>
       <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1943,8 +2117,19 @@
         <v>66</v>
       </c>
       <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="Y15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1998,8 +2183,19 @@
         <v>66</v>
       </c>
       <c r="W16" s="7"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2053,8 +2249,19 @@
         <v>48</v>
       </c>
       <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2108,8 +2315,19 @@
         <v>47</v>
       </c>
       <c r="W18" s="7"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2165,8 +2383,19 @@
         <v>66</v>
       </c>
       <c r="W19" s="7"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -2224,6 +2453,17 @@
         <v>48</v>
       </c>
       <c r="W20" s="10"/>
+      <c r="Y20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26298A8D-78E5-49E5-A376-58DCEDC08C87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5CCBD-3F8E-47C3-9FD9-97C03CC8F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="81">
   <si>
     <t>Siapa</t>
   </si>
@@ -585,14 +580,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -620,12 +615,14 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,9 +1036,12 @@
     <col min="15" max="15" width="26.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="8.7265625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
@@ -1078,26 +1078,38 @@
       <c r="AC1" s="29"/>
       <c r="AD1" s="29"/>
       <c r="AE1" s="30"/>
-      <c r="AG1" t="s">
+      <c r="AG1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AR1" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AS1" t="s">
         <v>70</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AT1" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AU1" t="s">
         <v>74</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AV1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1182,26 +1194,50 @@
       <c r="AE2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AG2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AR2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AS2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2">
+      <c r="AT2">
         <v>10</v>
       </c>
-      <c r="AK2">
+      <c r="AU2">
         <v>300</v>
       </c>
-      <c r="AL2">
+      <c r="AV2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1266,26 +1302,40 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="4"/>
-      <c r="AG3" s="27" t="s">
+      <c r="AG3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="27" t="s">
+      <c r="AR3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AI3" s="27" t="s">
+      <c r="AS3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3">
+      <c r="AT3">
         <v>9</v>
       </c>
-      <c r="AK3">
+      <c r="AU3">
         <v>300</v>
       </c>
-      <c r="AL3">
+      <c r="AV3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1348,26 +1398,40 @@
       <c r="AC4" s="34"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="7"/>
-      <c r="AG4" s="27" t="s">
+      <c r="AG4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="27" t="s">
+      <c r="AR4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AS4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4">
+      <c r="AT4">
         <v>8</v>
       </c>
-      <c r="AK4">
+      <c r="AU4">
         <v>300</v>
       </c>
-      <c r="AL4">
+      <c r="AV4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1432,26 +1496,40 @@
       <c r="AC5" s="34"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="7"/>
-      <c r="AG5" s="27" t="s">
+      <c r="AG5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AH5" s="27" t="s">
+      <c r="AR5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AI5" s="27" t="s">
+      <c r="AS5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AJ5">
+      <c r="AT5">
         <v>10</v>
       </c>
-      <c r="AK5">
+      <c r="AU5">
         <v>300</v>
       </c>
-      <c r="AL5">
+      <c r="AV5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1516,12 +1594,32 @@
         <v>31</v>
       </c>
       <c r="AA6" s="24"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="AB6" s="35">
+        <v>45638</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE6" s="7"/>
+      <c r="AG6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1590,8 +1688,22 @@
         <v>66</v>
       </c>
       <c r="AE7" s="7"/>
+      <c r="AG7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1662,8 +1774,22 @@
         <v>66</v>
       </c>
       <c r="AE8" s="7"/>
+      <c r="AG8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1728,8 +1854,22 @@
       <c r="AC9" s="34"/>
       <c r="AD9" s="34"/>
       <c r="AE9" s="7"/>
+      <c r="AG9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1792,8 +1932,22 @@
       <c r="AC10" s="34"/>
       <c r="AD10" s="34"/>
       <c r="AE10" s="7"/>
+      <c r="AG10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1866,8 +2020,22 @@
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="16"/>
+      <c r="AG11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1930,8 +2098,22 @@
       <c r="AC12" s="34"/>
       <c r="AD12" s="6"/>
       <c r="AE12" s="7"/>
+      <c r="AG12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1998,8 +2180,22 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="7"/>
+      <c r="AG13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -2062,8 +2258,22 @@
       <c r="AC14" s="34"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="7"/>
+      <c r="AG14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -2128,8 +2338,22 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="7"/>
+      <c r="AG15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2194,8 +2418,22 @@
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="7"/>
+      <c r="AG16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2260,8 +2498,22 @@
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="7"/>
+      <c r="AG17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="40"/>
+      <c r="AP17" s="40"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2326,8 +2578,22 @@
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="7"/>
+      <c r="AG18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="40"/>
+      <c r="AO18" s="40"/>
+      <c r="AP18" s="40"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2394,8 +2660,22 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="7"/>
+      <c r="AG19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="40"/>
+      <c r="AO19" s="40"/>
+      <c r="AP19" s="40"/>
     </row>
-    <row r="20" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -2464,6 +2744,20 @@
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="10"/>
+      <c r="AG20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="40"/>
+      <c r="AO20" s="40"/>
+      <c r="AP20" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD5CCBD-3F8E-47C3-9FD9-97C03CC8F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B489B2C-7E15-4311-AA93-B9F7480C8CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="82">
   <si>
     <t>Siapa</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -621,8 +624,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
   <dimension ref="A1:AV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1038,7 +1039,6 @@
     <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="8.7265625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1079,7 +1079,7 @@
       <c r="AD1" s="29"/>
       <c r="AE1" s="30"/>
       <c r="AG1" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH1" s="29"/>
       <c r="AI1" s="29"/>
@@ -1087,9 +1087,6 @@
       <c r="AK1" s="29"/>
       <c r="AL1" s="29"/>
       <c r="AM1" s="30"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
       <c r="AQ1" t="s">
         <v>60</v>
       </c>
@@ -1215,9 +1212,6 @@
       <c r="AM2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
       <c r="AQ2" s="27" t="s">
         <v>20</v>
       </c>
@@ -1313,9 +1307,6 @@
       <c r="AK3" s="33"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="4"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
       <c r="AQ3" s="27" t="s">
         <v>21</v>
       </c>
@@ -1409,9 +1400,6 @@
       <c r="AK4" s="34"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="7"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
       <c r="AQ4" s="27" t="s">
         <v>23</v>
       </c>
@@ -1507,9 +1495,6 @@
       <c r="AK5" s="34"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="7"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
       <c r="AQ5" s="27" t="s">
         <v>25</v>
       </c>
@@ -1615,9 +1600,6 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
       <c r="AM6" s="7"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1699,9 +1681,6 @@
       <c r="AK7" s="34"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="7"/>
-      <c r="AN7" s="40"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -1785,9 +1764,6 @@
       <c r="AK8" s="34"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="7"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1865,9 +1841,6 @@
       <c r="AK9" s="34"/>
       <c r="AL9" s="34"/>
       <c r="AM9" s="7"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1943,9 +1916,6 @@
       <c r="AK10" s="34"/>
       <c r="AL10" s="34"/>
       <c r="AM10" s="7"/>
-      <c r="AN10" s="40"/>
-      <c r="AO10" s="40"/>
-      <c r="AP10" s="40"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
@@ -2016,9 +1986,15 @@
         <v>36</v>
       </c>
       <c r="AA11" s="25"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
+      <c r="AB11" s="38">
+        <v>45678</v>
+      </c>
+      <c r="AC11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="AE11" s="16"/>
       <c r="AG11" s="14" t="s">
         <v>27</v>
@@ -2031,9 +2007,6 @@
       <c r="AK11" s="15"/>
       <c r="AL11" s="15"/>
       <c r="AM11" s="16"/>
-      <c r="AN11" s="40"/>
-      <c r="AO11" s="40"/>
-      <c r="AP11" s="40"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -2082,7 +2055,9 @@
       </c>
       <c r="S12" s="24"/>
       <c r="T12" s="31"/>
-      <c r="U12" s="34"/>
+      <c r="U12" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="V12" s="6" t="s">
         <v>49</v>
       </c>
@@ -2109,9 +2084,6 @@
       <c r="AK12" s="34"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="7"/>
-      <c r="AN12" s="40"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -2191,9 +2163,6 @@
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="7"/>
-      <c r="AN13" s="40"/>
-      <c r="AO13" s="40"/>
-      <c r="AP13" s="40"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -2242,7 +2211,9 @@
       </c>
       <c r="S14" s="24"/>
       <c r="T14" s="31"/>
-      <c r="U14" s="34"/>
+      <c r="U14" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="V14" s="6" t="s">
         <v>49</v>
       </c>
@@ -2269,9 +2240,6 @@
       <c r="AK14" s="34"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="7"/>
-      <c r="AN14" s="40"/>
-      <c r="AO14" s="40"/>
-      <c r="AP14" s="40"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -2349,9 +2317,6 @@
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="7"/>
-      <c r="AN15" s="40"/>
-      <c r="AO15" s="40"/>
-      <c r="AP15" s="40"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -2414,9 +2379,15 @@
         <v>42</v>
       </c>
       <c r="AA16" s="24"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
+      <c r="AB16" s="38">
+        <v>45678</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE16" s="7"/>
       <c r="AG16" s="5" t="s">
         <v>37</v>
@@ -2429,11 +2400,8 @@
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="40"/>
-      <c r="AO16" s="40"/>
-      <c r="AP16" s="40"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2509,11 +2477,8 @@
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="40"/>
-      <c r="AO17" s="40"/>
-      <c r="AP17" s="40"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2589,11 +2554,8 @@
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="7"/>
-      <c r="AN18" s="40"/>
-      <c r="AO18" s="40"/>
-      <c r="AP18" s="40"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2671,11 +2633,8 @@
       <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
       <c r="AM19" s="7"/>
-      <c r="AN19" s="40"/>
-      <c r="AO19" s="40"/>
-      <c r="AP19" s="40"/>
     </row>
-    <row r="20" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -2755,9 +2714,6 @@
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="10"/>
-      <c r="AN20" s="40"/>
-      <c r="AO20" s="40"/>
-      <c r="AP20" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B489B2C-7E15-4311-AA93-B9F7480C8CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A37976-9F2B-4565-B067-8E929D6555FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
     <sheet name="Videos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="83">
   <si>
     <t>Siapa</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>August</t>
+  </si>
+  <si>
+    <t>NOT SAMPLED</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1029,7 @@
   <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1385,9 +1388,15 @@
         <v>29</v>
       </c>
       <c r="AA4" s="24"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="6"/>
+      <c r="AB4" s="31">
+        <v>45687</v>
+      </c>
+      <c r="AC4" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE4" s="7"/>
       <c r="AG4" s="5" t="s">
         <v>27</v>
@@ -1826,9 +1835,15 @@
         <v>34</v>
       </c>
       <c r="AA9" s="24"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
+      <c r="AB9" s="31">
+        <v>45687</v>
+      </c>
+      <c r="AC9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="AE9" s="7"/>
       <c r="AG9" s="5" t="s">
         <v>27</v>
@@ -2538,10 +2553,18 @@
       <c r="Z18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
+      <c r="AA18" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB18" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="AE18" s="7"/>
       <c r="AG18" s="5" t="s">
         <v>37</v>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A37976-9F2B-4565-B067-8E929D6555FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED8059B-EF49-4675-AA2D-EE8966A32702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="83">
   <si>
     <t>Siapa</t>
   </si>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2084,9 +2084,13 @@
         <v>38</v>
       </c>
       <c r="AA12" s="24"/>
-      <c r="AB12" s="31"/>
+      <c r="AB12" s="31">
+        <v>45718</v>
+      </c>
       <c r="AC12" s="34"/>
-      <c r="AD12" s="6"/>
+      <c r="AD12" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE12" s="7"/>
       <c r="AG12" s="5" t="s">
         <v>37</v>
@@ -2477,9 +2481,13 @@
         <v>43</v>
       </c>
       <c r="AA17" s="24"/>
-      <c r="AB17" s="35"/>
+      <c r="AB17" s="35">
+        <v>45693</v>
+      </c>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
+      <c r="AD17" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="AE17" s="7"/>
       <c r="AG17" s="5" t="s">
         <v>37</v>
@@ -2641,9 +2649,15 @@
         <v>45</v>
       </c>
       <c r="AA19" s="24"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
+      <c r="AB19" s="35">
+        <v>45693</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE19" s="7"/>
       <c r="AG19" s="5" t="s">
         <v>37</v>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED8059B-EF49-4675-AA2D-EE8966A32702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B50E3B-6F43-4324-A530-83819079AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="83">
   <si>
     <t>Siapa</t>
   </si>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
   <dimension ref="A1:AV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1295,9 +1295,13 @@
         <v>28</v>
       </c>
       <c r="AA3" s="23"/>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="32">
+        <v>45700</v>
+      </c>
       <c r="AC3" s="33"/>
-      <c r="AD3" s="3"/>
+      <c r="AD3" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="AE3" s="4"/>
       <c r="AG3" s="2" t="s">
         <v>27</v>
@@ -1489,9 +1493,13 @@
         <v>30</v>
       </c>
       <c r="AA5" s="24"/>
-      <c r="AB5" s="31"/>
+      <c r="AB5" s="31">
+        <v>45700</v>
+      </c>
       <c r="AC5" s="34"/>
-      <c r="AD5" s="6"/>
+      <c r="AD5" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE5" s="7"/>
       <c r="AG5" s="5" t="s">
         <v>27</v>
@@ -1916,9 +1924,15 @@
         <v>35</v>
       </c>
       <c r="AA10" s="24"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
+      <c r="AB10" s="31">
+        <v>45694</v>
+      </c>
+      <c r="AC10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD10" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="AE10" s="7"/>
       <c r="AG10" s="5" t="s">
         <v>27</v>
@@ -2087,7 +2101,9 @@
       <c r="AB12" s="31">
         <v>45718</v>
       </c>
-      <c r="AC12" s="34"/>
+      <c r="AC12" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="AD12" s="6" t="s">
         <v>68</v>
       </c>
@@ -2167,9 +2183,15 @@
         <v>39</v>
       </c>
       <c r="AA13" s="24"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
+      <c r="AB13" s="35">
+        <v>45694</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE13" s="7"/>
       <c r="AG13" s="5" t="s">
         <v>37</v>
@@ -2321,9 +2343,15 @@
         <v>41</v>
       </c>
       <c r="AA15" s="24"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="AB15" s="35">
+        <v>45694</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE15" s="7"/>
       <c r="AG15" s="5" t="s">
         <v>37</v>

--- a/RClass/InternHours.xlsx
+++ b/RClass/InternHours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\RClass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B50E3B-6F43-4324-A530-83819079AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BBDA76-70D7-4440-8029-3CF69B1B956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetings" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="85">
   <si>
     <t>Siapa</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>NOT SAMPLED</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>TO DO order</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -627,6 +633,7 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1026,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BFB920-5DF5-4276-811E-D752F7CB5ECC}">
-  <dimension ref="A1:AV20"/>
+  <dimension ref="A1:BC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1042,9 +1049,10 @@
     <col min="27" max="27" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
@@ -1090,26 +1098,35 @@
       <c r="AK1" s="29"/>
       <c r="AL1" s="29"/>
       <c r="AM1" s="30"/>
-      <c r="AQ1" t="s">
+      <c r="AO1" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="30"/>
+      <c r="AX1" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AY1" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AZ1" t="s">
         <v>70</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BA1" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BB1" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BC1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1201,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="AI2" s="22" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>17</v>
@@ -1215,26 +1232,47 @@
       <c r="AM2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AQ2" s="27" t="s">
+      <c r="AO2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AR2" s="27" t="s">
+      <c r="AY2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="27" t="s">
+      <c r="AZ2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AT2">
+      <c r="BA2">
         <v>10</v>
       </c>
-      <c r="AU2">
+      <c r="BB2">
         <v>300</v>
       </c>
-      <c r="AV2">
+      <c r="BC2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1309,31 +1347,44 @@
       <c r="AH3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AI3" s="23"/>
+      <c r="AI3" s="23">
+        <v>17</v>
+      </c>
       <c r="AJ3" s="32"/>
       <c r="AK3" s="33"/>
       <c r="AL3" s="3"/>
       <c r="AM3" s="4"/>
-      <c r="AQ3" s="27" t="s">
+      <c r="AO3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="4"/>
+      <c r="AX3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AR3" s="27" t="s">
+      <c r="AY3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AS3" s="27" t="s">
+      <c r="AZ3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AT3">
+      <c r="BA3">
         <v>9</v>
       </c>
-      <c r="AU3">
+      <c r="BB3">
         <v>300</v>
       </c>
-      <c r="AV3">
+      <c r="BC3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -1408,31 +1459,44 @@
       <c r="AH4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="24"/>
+      <c r="AI4" s="24">
+        <v>13</v>
+      </c>
       <c r="AJ4" s="31"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="6"/>
       <c r="AM4" s="7"/>
-      <c r="AQ4" s="27" t="s">
+      <c r="AO4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="7"/>
+      <c r="AX4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" s="27" t="s">
+      <c r="AY4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AS4" s="27" t="s">
+      <c r="AZ4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AT4">
+      <c r="BA4">
         <v>8</v>
       </c>
-      <c r="AU4">
+      <c r="BB4">
         <v>300</v>
       </c>
-      <c r="AV4">
+      <c r="BC4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1507,31 +1571,44 @@
       <c r="AH5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AI5" s="24"/>
+      <c r="AI5" s="24">
+        <v>18</v>
+      </c>
       <c r="AJ5" s="31"/>
       <c r="AK5" s="34"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="7"/>
-      <c r="AQ5" s="27" t="s">
+      <c r="AO5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="7"/>
+      <c r="AX5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AR5" s="27" t="s">
+      <c r="AY5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AS5" s="27" t="s">
+      <c r="AZ5" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AT5">
+      <c r="BA5">
         <v>10</v>
       </c>
-      <c r="AU5">
+      <c r="BB5">
         <v>300</v>
       </c>
-      <c r="AV5">
+      <c r="BC5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1612,13 +1689,26 @@
       <c r="AH6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AI6" s="24"/>
+      <c r="AI6" s="24">
+        <v>16</v>
+      </c>
       <c r="AJ6" s="35"/>
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
       <c r="AM6" s="7"/>
+      <c r="AO6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="7"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1693,13 +1783,26 @@
       <c r="AH7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AI7" s="24"/>
+      <c r="AI7" s="24">
+        <v>6</v>
+      </c>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="34"/>
       <c r="AL7" s="6"/>
       <c r="AM7" s="7"/>
+      <c r="AO7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="7"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1776,13 +1879,26 @@
       <c r="AH8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AI8" s="24"/>
+      <c r="AI8" s="24">
+        <v>14</v>
+      </c>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="34"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="7"/>
+      <c r="AO8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="34"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="7"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1859,13 +1975,26 @@
       <c r="AH9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="24"/>
+      <c r="AI9" s="24">
+        <v>11</v>
+      </c>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="34"/>
       <c r="AL9" s="34"/>
       <c r="AM9" s="7"/>
+      <c r="AO9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="7"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1940,13 +2069,26 @@
       <c r="AH10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AI10" s="24"/>
+      <c r="AI10" s="24">
+        <v>12</v>
+      </c>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="34"/>
       <c r="AL10" s="34"/>
       <c r="AM10" s="7"/>
+      <c r="AO10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="7"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
@@ -2031,13 +2173,26 @@
       <c r="AH11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AI11" s="25"/>
+      <c r="AI11" s="25">
+        <v>4</v>
+      </c>
       <c r="AJ11" s="38"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="15"/>
       <c r="AM11" s="16"/>
+      <c r="AO11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="16"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -2114,13 +2269,26 @@
       <c r="AH12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AI12" s="24"/>
+      <c r="AI12" s="24">
+        <v>8</v>
+      </c>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="6"/>
       <c r="AM12" s="7"/>
+      <c r="AO12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="7"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2199,13 +2367,26 @@
       <c r="AH13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="24"/>
+      <c r="AI13" s="24">
+        <v>2</v>
+      </c>
       <c r="AJ13" s="35"/>
       <c r="AK13" s="6"/>
       <c r="AL13" s="6"/>
       <c r="AM13" s="7"/>
+      <c r="AO13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="7"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -2266,9 +2447,13 @@
         <v>40</v>
       </c>
       <c r="AA14" s="24"/>
-      <c r="AB14" s="31"/>
+      <c r="AB14" s="31">
+        <v>45729</v>
+      </c>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="6"/>
+      <c r="AD14" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="AE14" s="7"/>
       <c r="AG14" s="5" t="s">
         <v>37</v>
@@ -2276,13 +2461,26 @@
       <c r="AH14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AI14" s="24"/>
+      <c r="AI14" s="24">
+        <v>5</v>
+      </c>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="34"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="7"/>
+      <c r="AO14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="7"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -2359,13 +2557,26 @@
       <c r="AH15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AI15" s="24"/>
+      <c r="AI15" s="24">
+        <v>1</v>
+      </c>
       <c r="AJ15" s="35"/>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="7"/>
+      <c r="AO15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="35"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="7"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2442,13 +2653,26 @@
       <c r="AH16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AI16" s="24"/>
+      <c r="AI16" s="24">
+        <v>15</v>
+      </c>
       <c r="AJ16" s="35"/>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
       <c r="AM16" s="7"/>
+      <c r="AO16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="35"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="7"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2523,13 +2747,26 @@
       <c r="AH17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AI17" s="24"/>
+      <c r="AI17" s="24">
+        <v>7</v>
+      </c>
       <c r="AJ17" s="35"/>
       <c r="AK17" s="6"/>
       <c r="AL17" s="6"/>
       <c r="AM17" s="7"/>
+      <c r="AO17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="7"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2608,13 +2845,26 @@
       <c r="AH18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AI18" s="24"/>
+      <c r="AI18" s="24">
+        <v>10</v>
+      </c>
       <c r="AJ18" s="35"/>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="7"/>
+      <c r="AO18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="7"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2693,13 +2943,26 @@
       <c r="AH19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AI19" s="24"/>
+      <c r="AI19" s="24">
+        <v>9</v>
+      </c>
       <c r="AJ19" s="35"/>
       <c r="AK19" s="6"/>
       <c r="AL19" s="6"/>
       <c r="AM19" s="7"/>
+      <c r="AO19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP19" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="35"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="7"/>
     </row>
-    <row r="20" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -2764,9 +3027,13 @@
         <v>46</v>
       </c>
       <c r="AA20" s="26"/>
-      <c r="AB20" s="20"/>
+      <c r="AB20" s="40">
+        <v>45729</v>
+      </c>
       <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
+      <c r="AD20" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="AE20" s="10"/>
       <c r="AG20" s="8" t="s">
         <v>37</v>
@@ -2774,11 +3041,24 @@
       <c r="AH20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AI20" s="26"/>
+      <c r="AI20" s="26">
+        <v>3</v>
+      </c>
       <c r="AJ20" s="20"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="10"/>
+      <c r="AO20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
